--- a/Notes on Lines.xlsx
+++ b/Notes on Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/earthnote/Desktop/Bransfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6857B8F2-D1A5-7B4C-8149-C7B4413D585B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B057F12A-1B58-284A-AB16-73D4D1C9F567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{D5707BB0-5C9E-FE4E-9C28-50696503ED56}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="66">
   <si>
     <t>Station</t>
   </si>
@@ -92,12 +92,6 @@
     <t>BRA27</t>
   </si>
   <si>
-    <t>BRA28</t>
-  </si>
-  <si>
-    <t>BRA29</t>
-  </si>
-  <si>
     <t>signal becomes less defined towards left -9, signal interference at -5.5</t>
   </si>
   <si>
@@ -219,6 +213,24 @@
   </si>
   <si>
     <t>first half missing</t>
+  </si>
+  <si>
+    <t>signal is around 2 secs, can't identify 1st arrival</t>
+  </si>
+  <si>
+    <t>weird step in the pattern near 1</t>
+  </si>
+  <si>
+    <t>confirm whether it's correct</t>
+  </si>
+  <si>
+    <t>weird step in the pattern near 2</t>
+  </si>
+  <si>
+    <t>clear picks</t>
+  </si>
+  <si>
+    <t>clear picks until 0</t>
   </si>
 </sst>
 </file>
@@ -274,11 +286,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1730744-8F8C-824E-BEC0-BFAF75AF7A04}">
-  <dimension ref="A1:E449"/>
+  <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="69" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -648,13 +661,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,7 +684,7 @@
         <v>-3</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -688,7 +701,7 @@
         <v>-3</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -705,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -721,6 +734,9 @@
       <c r="D7">
         <v>-1</v>
       </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -736,7 +752,7 @@
         <v>-0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -752,6 +768,9 @@
       <c r="D9">
         <v>0.5</v>
       </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -766,6 +785,9 @@
       <c r="D10">
         <v>0.5</v>
       </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -781,7 +803,7 @@
         <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -798,7 +820,7 @@
         <v>2.5</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -815,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -832,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -849,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -866,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -883,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -900,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -917,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -934,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -951,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -968,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -979,13 +1001,13 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -996,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1013,13 +1035,13 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1030,13 +1052,13 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1047,13 +1069,13 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1064,13 +1086,13 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1081,13 +1103,13 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1121,7 +1143,7 @@
         <v>5.5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1137,6 +1159,9 @@
       <c r="D32">
         <v>0</v>
       </c>
+      <c r="E32" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1152,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1186,7 +1211,7 @@
         <v>-3.5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1203,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1220,7 +1245,7 @@
         <v>-5</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1251,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,7 +1293,7 @@
         <v>-0.5</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1285,7 +1310,7 @@
         <v>-0.5</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1302,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1318,6 +1343,9 @@
       <c r="D43">
         <v>1</v>
       </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -1332,6 +1360,9 @@
       <c r="D44">
         <v>0.5</v>
       </c>
+      <c r="E44" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -1346,6 +1377,9 @@
       <c r="D45">
         <v>2</v>
       </c>
+      <c r="E45" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1361,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1377,6 +1411,9 @@
       <c r="D47">
         <v>1</v>
       </c>
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1392,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1409,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1420,13 +1457,13 @@
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1437,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1454,13 +1491,13 @@
         <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1471,13 +1508,13 @@
         <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1488,13 +1525,13 @@
         <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1505,13 +1542,13 @@
         <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1522,13 +1559,13 @@
         <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1539,13 +1576,13 @@
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1570,13 +1607,13 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1775,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1792,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1809,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1826,7 +1863,7 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1843,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1868,13 +1905,13 @@
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -1885,13 +1922,13 @@
         <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -1902,13 +1939,13 @@
         <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -1919,13 +1956,13 @@
         <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -1936,13 +1973,13 @@
         <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1953,13 +1990,13 @@
         <v>35</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -1970,13 +2007,13 @@
         <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2007,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2038,7 +2075,7 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2153,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2170,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2187,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2204,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2249,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2302,13 +2339,13 @@
         <v>30</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2319,13 +2356,13 @@
         <v>31</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2336,13 +2373,13 @@
         <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2353,13 +2390,13 @@
         <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2370,13 +2407,13 @@
         <v>34</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2387,13 +2424,13 @@
         <v>35</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2404,13 +2441,13 @@
         <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -3337,7 +3374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>12</v>
       </c>
@@ -3345,7 +3382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -3353,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -3361,7 +3398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -3369,7 +3406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -3385,7 +3422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -3393,7 +3430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -3401,7 +3438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -3409,7 +3446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -3417,7 +3454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -3425,7 +3462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -3433,7 +3470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -3441,15 +3478,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>13</v>
       </c>
       <c r="B238">
         <v>17</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238">
+        <v>-5</v>
+      </c>
+      <c r="D238">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -3457,7 +3500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -3593,7 +3636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -3601,7 +3644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>14</v>
       </c>
@@ -3609,7 +3652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -3617,7 +3660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -3625,7 +3668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>14</v>
       </c>
@@ -3633,7 +3676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>14</v>
       </c>
@@ -3641,7 +3684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>14</v>
       </c>
@@ -3649,7 +3692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>14</v>
       </c>
@@ -3657,23 +3700,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>14</v>
       </c>
       <c r="B265">
         <v>16</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C265">
+        <v>-8</v>
+      </c>
+      <c r="D265">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>14</v>
       </c>
       <c r="B266">
         <v>17</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C266">
+        <v>-8</v>
+      </c>
+      <c r="D266">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>14</v>
       </c>
@@ -3681,7 +3736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -3689,7 +3744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>14</v>
       </c>
@@ -3697,7 +3752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>14</v>
       </c>
@@ -3705,7 +3760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -3713,7 +3768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -3849,7 +3904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -3857,7 +3912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -3865,7 +3920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -3873,7 +3928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -3881,23 +3936,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>15</v>
       </c>
       <c r="B293">
         <v>16</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C293">
+        <v>-4</v>
+      </c>
+      <c r="D293">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>15</v>
       </c>
       <c r="B294">
         <v>17</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C294">
+        <v>-4</v>
+      </c>
+      <c r="D294">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -3905,7 +3972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -3913,7 +3980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -3921,7 +3988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -3929,7 +3996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -3937,7 +4004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -3945,7 +4012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -3953,7 +4020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -3961,7 +4028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -3969,7 +4036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -4105,23 +4172,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>16</v>
       </c>
       <c r="B321">
         <v>16</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C321">
+        <v>-1</v>
+      </c>
+      <c r="D321">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>16</v>
       </c>
       <c r="B322">
         <v>17</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C322">
+        <v>-4</v>
+      </c>
+      <c r="D322">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>16</v>
       </c>
@@ -4129,7 +4208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>16</v>
       </c>
@@ -4137,7 +4216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>16</v>
       </c>
@@ -4145,7 +4224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>16</v>
       </c>
@@ -4153,7 +4232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>16</v>
       </c>
@@ -4161,7 +4240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>16</v>
       </c>
@@ -4169,7 +4248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>16</v>
       </c>
@@ -4177,7 +4256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>16</v>
       </c>
@@ -4185,7 +4264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>16</v>
       </c>
@@ -4193,7 +4272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>16</v>
       </c>
@@ -4201,7 +4280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>16</v>
       </c>
@@ -4209,7 +4288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>16</v>
       </c>
@@ -4217,7 +4296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>16</v>
       </c>
@@ -4225,7 +4304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>16</v>
       </c>
@@ -4233,7 +4312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>16</v>
       </c>
@@ -4241,7 +4320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -4249,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -4257,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>17</v>
       </c>
@@ -4265,7 +4344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>17</v>
       </c>
@@ -4273,7 +4352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>17</v>
       </c>
@@ -4281,7 +4360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>17</v>
       </c>
@@ -4289,7 +4368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>17</v>
       </c>
@@ -4297,7 +4376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>17</v>
       </c>
@@ -4305,7 +4384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>17</v>
       </c>
@@ -4313,7 +4392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>17</v>
       </c>
@@ -4321,31 +4400,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>17</v>
       </c>
       <c r="B348">
         <v>15</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C348">
+        <v>-2</v>
+      </c>
+      <c r="D348">
+        <v>10</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>17</v>
       </c>
       <c r="B349">
         <v>16</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C349">
+        <v>-2</v>
+      </c>
+      <c r="D349">
+        <v>10</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>17</v>
       </c>
       <c r="B350">
         <v>17</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>17</v>
       </c>
@@ -4353,7 +4456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>17</v>
       </c>
@@ -4361,7 +4464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>17</v>
       </c>
@@ -4369,7 +4472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>17</v>
       </c>
@@ -4377,7 +4480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>17</v>
       </c>
@@ -4385,7 +4488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>17</v>
       </c>
@@ -4393,7 +4496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>17</v>
       </c>
@@ -4401,7 +4504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>17</v>
       </c>
@@ -4409,31 +4512,58 @@
         <v>29</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>17</v>
       </c>
       <c r="B359">
         <v>30</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C359">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D359">
+        <v>12.2</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>17</v>
       </c>
       <c r="B360">
         <v>31</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C360" t="s">
+        <v>30</v>
+      </c>
+      <c r="D360" t="s">
+        <v>30</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>17</v>
       </c>
       <c r="B361">
         <v>32</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C361">
+        <v>9</v>
+      </c>
+      <c r="D361">
+        <v>12</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>17</v>
       </c>
@@ -4441,7 +4571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>17</v>
       </c>
@@ -4449,7 +4579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>17</v>
       </c>
@@ -4457,7 +4587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>17</v>
       </c>
@@ -4465,7 +4595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>18</v>
       </c>
@@ -4473,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>18</v>
       </c>
@@ -4481,7 +4611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>18</v>
       </c>
@@ -4489,7 +4619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>18</v>
       </c>
@@ -4497,7 +4627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>18</v>
       </c>
@@ -4505,7 +4635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>18</v>
       </c>
@@ -4513,7 +4643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>18</v>
       </c>
@@ -4521,7 +4651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>18</v>
       </c>
@@ -4529,7 +4659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>18</v>
       </c>
@@ -4537,7 +4667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>18</v>
       </c>
@@ -4545,7 +4675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>18</v>
       </c>
@@ -4553,7 +4683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>18</v>
       </c>
@@ -4561,15 +4691,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>18</v>
       </c>
       <c r="B378">
         <v>17</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E378" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>18</v>
       </c>
@@ -4577,7 +4710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>18</v>
       </c>
@@ -4585,7 +4718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>18</v>
       </c>
@@ -4593,7 +4726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>18</v>
       </c>
@@ -4601,7 +4734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>18</v>
       </c>
@@ -4609,7 +4742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>18</v>
       </c>
@@ -4686,454 +4819,6 @@
         <v>18</v>
       </c>
       <c r="B393">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>19</v>
-      </c>
-      <c r="B394">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>19</v>
-      </c>
-      <c r="B395">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
-        <v>19</v>
-      </c>
-      <c r="B396">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>19</v>
-      </c>
-      <c r="B397">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>19</v>
-      </c>
-      <c r="B398">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>19</v>
-      </c>
-      <c r="B399">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>19</v>
-      </c>
-      <c r="B400">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>19</v>
-      </c>
-      <c r="B401">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>19</v>
-      </c>
-      <c r="B402">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
-        <v>19</v>
-      </c>
-      <c r="B403">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>19</v>
-      </c>
-      <c r="B404">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>19</v>
-      </c>
-      <c r="B405">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>19</v>
-      </c>
-      <c r="B406">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>19</v>
-      </c>
-      <c r="B407">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>19</v>
-      </c>
-      <c r="B408">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>19</v>
-      </c>
-      <c r="B409">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
-        <v>19</v>
-      </c>
-      <c r="B410">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
-        <v>19</v>
-      </c>
-      <c r="B411">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
-        <v>19</v>
-      </c>
-      <c r="B412">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
-        <v>19</v>
-      </c>
-      <c r="B413">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
-        <v>19</v>
-      </c>
-      <c r="B414">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>19</v>
-      </c>
-      <c r="B415">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>19</v>
-      </c>
-      <c r="B416">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>19</v>
-      </c>
-      <c r="B417">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>19</v>
-      </c>
-      <c r="B418">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
-        <v>19</v>
-      </c>
-      <c r="B419">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>19</v>
-      </c>
-      <c r="B420">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
-        <v>19</v>
-      </c>
-      <c r="B421">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
-        <v>20</v>
-      </c>
-      <c r="B422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
-        <v>20</v>
-      </c>
-      <c r="B423">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
-        <v>20</v>
-      </c>
-      <c r="B424">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>20</v>
-      </c>
-      <c r="B425">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>20</v>
-      </c>
-      <c r="B426">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>20</v>
-      </c>
-      <c r="B427">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
-        <v>20</v>
-      </c>
-      <c r="B428">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
-        <v>20</v>
-      </c>
-      <c r="B429">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
-        <v>20</v>
-      </c>
-      <c r="B430">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
-        <v>20</v>
-      </c>
-      <c r="B431">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>20</v>
-      </c>
-      <c r="B432">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
-        <v>20</v>
-      </c>
-      <c r="B433">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>20</v>
-      </c>
-      <c r="B434">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>20</v>
-      </c>
-      <c r="B435">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>20</v>
-      </c>
-      <c r="B436">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
-        <v>20</v>
-      </c>
-      <c r="B437">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
-        <v>20</v>
-      </c>
-      <c r="B438">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
-        <v>20</v>
-      </c>
-      <c r="B439">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
-        <v>20</v>
-      </c>
-      <c r="B440">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
-        <v>20</v>
-      </c>
-      <c r="B441">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
-        <v>20</v>
-      </c>
-      <c r="B442">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
-        <v>20</v>
-      </c>
-      <c r="B443">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
-        <v>20</v>
-      </c>
-      <c r="B444">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
-        <v>20</v>
-      </c>
-      <c r="B445">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
-        <v>20</v>
-      </c>
-      <c r="B446">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
-        <v>20</v>
-      </c>
-      <c r="B447">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
-        <v>20</v>
-      </c>
-      <c r="B448">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
-        <v>20</v>
-      </c>
-      <c r="B449">
         <v>36</v>
       </c>
     </row>

--- a/Notes on Lines.xlsx
+++ b/Notes on Lines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/earthnote/Desktop/Bransfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B057F12A-1B58-284A-AB16-73D4D1C9F567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFE11B9-9796-6D4D-B258-42DAFF469965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{D5707BB0-5C9E-FE4E-9C28-50696503ED56}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{D5707BB0-5C9E-FE4E-9C28-50696503ED56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="66">
   <si>
     <t>Station</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Missing first half of the line</t>
   </si>
   <si>
-    <t>wave splitting occurs at x=-3. arrival is less defined</t>
-  </si>
-  <si>
     <t>1 arrival closed to -5 comes earlier than what it should be</t>
   </si>
   <si>
@@ -122,27 +119,15 @@
     <t>Arrival splitting observed after 1.5</t>
   </si>
   <si>
-    <t>Almost full arrivals are picked in line. Signal is less defined after 2</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
-    <t>From -10 to -6, positive wiggle is missing</t>
-  </si>
-  <si>
-    <t>From -9 to -8.5 shot signal is missing. From-10 to -6, positive wiggle missing</t>
-  </si>
-  <si>
     <t>3 shot signals missing near station</t>
   </si>
   <si>
     <t>Arrival splitting at 1(but only seen the split in 2 shots after)</t>
   </si>
   <si>
-    <t>I see the water wave? Don't know how to pick the P</t>
-  </si>
-  <si>
     <t>Arrival splits at 1. So no clear signal after it</t>
   </si>
   <si>
@@ -231,6 +216,21 @@
   </si>
   <si>
     <t>clear picks until 0</t>
+  </si>
+  <si>
+    <t>Left Range</t>
+  </si>
+  <si>
+    <t>Right Range</t>
+  </si>
+  <si>
+    <t>wave splitting occurs at x=-3.</t>
+  </si>
+  <si>
+    <t>water wave present in a small interval</t>
+  </si>
+  <si>
+    <t>I see the water wave</t>
   </si>
 </sst>
 </file>
@@ -606,20 +606,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1730744-8F8C-824E-BEC0-BFAF75AF7A04}">
-  <dimension ref="A1:E393"/>
+  <dimension ref="A1:G393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="152.83203125" customWidth="1"/>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="152.83203125" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,10 +634,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -649,28 +656,28 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>10.9</v>
+      </c>
+      <c r="F2">
+        <v>13.7</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -683,11 +690,17 @@
       <c r="D4">
         <v>-3</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>9.1</v>
+      </c>
+      <c r="F4">
+        <v>9.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -700,11 +713,17 @@
       <c r="D5">
         <v>-3</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F5">
+        <v>8.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -717,11 +736,17 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>7.2</v>
+      </c>
+      <c r="F6">
+        <v>8.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -734,11 +759,17 @@
       <c r="D7">
         <v>-1</v>
       </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>6.8</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -751,11 +782,17 @@
       <c r="D8">
         <v>-0.5</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>6.4</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -768,11 +805,17 @@
       <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>5.9</v>
+      </c>
+      <c r="F9">
+        <v>9.6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -785,11 +828,17 @@
       <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>5.5</v>
+      </c>
+      <c r="F10">
+        <v>9.4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -802,11 +851,17 @@
       <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F11">
+        <v>8.6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -819,11 +874,17 @@
       <c r="D12">
         <v>2.5</v>
       </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>4.7</v>
+      </c>
+      <c r="F12">
+        <v>10.6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -836,11 +897,17 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F13">
+        <v>11.1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -853,11 +920,17 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F14">
+        <v>10.3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -870,11 +943,17 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>3.6</v>
+      </c>
+      <c r="F15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -887,11 +966,17 @@
       <c r="D16">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>3.5</v>
+      </c>
+      <c r="F16">
+        <v>9.6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -904,11 +989,17 @@
       <c r="D17">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>3.3</v>
+      </c>
+      <c r="F17">
+        <v>10.7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -921,11 +1012,17 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>3.2</v>
+      </c>
+      <c r="F18">
+        <v>11.2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -938,11 +1035,11 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -955,11 +1052,17 @@
       <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>3.5</v>
+      </c>
+      <c r="F20">
+        <v>11.3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -972,11 +1075,17 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>8.6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -989,130 +1098,94 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>3.8</v>
+      </c>
+      <c r="F22">
+        <v>8.4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G25" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G26" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1125,11 +1198,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1142,11 +1215,11 @@
       <c r="D31">
         <v>5.5</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1159,11 +1232,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G32" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1176,11 +1249,11 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1193,11 +1266,11 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1210,11 +1283,11 @@
       <c r="D35">
         <v>-3.5</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1227,11 +1300,11 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1244,11 +1317,11 @@
       <c r="D37">
         <v>-5</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1262,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1275,11 +1348,11 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1292,11 +1365,11 @@
       <c r="D40">
         <v>-0.5</v>
       </c>
-      <c r="E40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1309,11 +1382,11 @@
       <c r="D41">
         <v>-0.5</v>
       </c>
-      <c r="E41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1326,11 +1399,11 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1343,11 +1416,11 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1360,11 +1433,11 @@
       <c r="D44">
         <v>0.5</v>
       </c>
-      <c r="E44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1377,11 +1450,11 @@
       <c r="D45">
         <v>2</v>
       </c>
-      <c r="E45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1394,11 +1467,11 @@
       <c r="D46">
         <v>2</v>
       </c>
-      <c r="E46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1411,11 +1484,11 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1428,11 +1501,11 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1445,147 +1518,99 @@
       <c r="D49">
         <v>4</v>
       </c>
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50">
         <v>29</v>
       </c>
-      <c r="C50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G50" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51">
         <v>30</v>
       </c>
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52">
         <v>31</v>
       </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53">
         <v>32</v>
       </c>
-      <c r="C53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G53" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54">
         <v>33</v>
       </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55">
         <v>34</v>
       </c>
-      <c r="C55" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
       <c r="B56">
         <v>35</v>
       </c>
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
       <c r="B57">
         <v>36</v>
       </c>
-      <c r="C57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1599,24 +1624,18 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G59" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1629,8 +1648,11 @@
       <c r="D60">
         <v>-1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G60" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1643,8 +1665,11 @@
       <c r="D61">
         <v>-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G61" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1657,8 +1682,13 @@
       <c r="D62" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1671,8 +1701,13 @@
       <c r="D63" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1685,8 +1720,11 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G64" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1699,8 +1737,11 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G65" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1713,8 +1754,11 @@
       <c r="D66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G66" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1727,8 +1771,11 @@
       <c r="D67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G67" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1741,8 +1788,11 @@
       <c r="D68">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G68" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1755,8 +1805,11 @@
       <c r="D69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G69" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1769,8 +1822,11 @@
       <c r="D70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G70" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1783,8 +1839,11 @@
       <c r="D71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G71" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1797,8 +1856,11 @@
       <c r="D72">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G72" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1811,11 +1873,11 @@
       <c r="D73">
         <v>5</v>
       </c>
-      <c r="E73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -1828,11 +1890,11 @@
       <c r="D74">
         <v>9</v>
       </c>
-      <c r="E74" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1845,11 +1907,11 @@
       <c r="D75">
         <v>5</v>
       </c>
-      <c r="E75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1862,11 +1924,11 @@
       <c r="D76">
         <v>6</v>
       </c>
-      <c r="E76" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1879,11 +1941,11 @@
       <c r="D77">
         <v>6</v>
       </c>
-      <c r="E77" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -1897,126 +1959,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
       <c r="B79">
         <v>30</v>
       </c>
-      <c r="C79" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
       <c r="B80">
         <v>31</v>
       </c>
-      <c r="C80" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G80" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81">
         <v>32</v>
       </c>
-      <c r="C81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" t="s">
-        <v>30</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G81" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
       <c r="B82">
         <v>33</v>
       </c>
-      <c r="C82" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" t="s">
-        <v>30</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G82" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
       <c r="B83">
         <v>34</v>
       </c>
-      <c r="C83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G83" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
       <c r="B84">
         <v>35</v>
       </c>
-      <c r="C84" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" t="s">
-        <v>30</v>
-      </c>
-      <c r="E84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
       <c r="B85">
         <v>36</v>
       </c>
-      <c r="C85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G85" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2030,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2043,11 +2063,11 @@
       <c r="D87">
         <v>6</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G87" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2061,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2074,11 +2094,11 @@
       <c r="D89">
         <v>3</v>
       </c>
-      <c r="E89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2092,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2106,7 +2126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2120,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2134,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2148,7 +2168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2162,7 +2182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -2189,11 +2209,11 @@
       <c r="D97">
         <v>3</v>
       </c>
-      <c r="E97" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2206,11 +2226,11 @@
       <c r="D98">
         <v>3</v>
       </c>
-      <c r="E98" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2223,11 +2243,11 @@
       <c r="D99">
         <v>3</v>
       </c>
-      <c r="E99" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2240,11 +2260,11 @@
       <c r="D100">
         <v>3</v>
       </c>
-      <c r="E100" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2258,7 +2278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2272,7 +2292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -2285,11 +2305,11 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G103" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -2303,7 +2323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2317,7 +2337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2331,126 +2351,84 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
       <c r="B107">
         <v>30</v>
       </c>
-      <c r="C107" t="s">
-        <v>30</v>
-      </c>
-      <c r="D107" t="s">
-        <v>30</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G107" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>8</v>
       </c>
       <c r="B108">
         <v>31</v>
       </c>
-      <c r="C108" t="s">
-        <v>30</v>
-      </c>
-      <c r="D108" t="s">
-        <v>30</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G108" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>8</v>
       </c>
       <c r="B109">
         <v>32</v>
       </c>
-      <c r="C109" t="s">
-        <v>30</v>
-      </c>
-      <c r="D109" t="s">
-        <v>30</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G109" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>8</v>
       </c>
       <c r="B110">
         <v>33</v>
       </c>
-      <c r="C110" t="s">
-        <v>30</v>
-      </c>
-      <c r="D110" t="s">
-        <v>30</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G110" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>8</v>
       </c>
       <c r="B111">
         <v>34</v>
       </c>
-      <c r="C111" t="s">
-        <v>30</v>
-      </c>
-      <c r="D111" t="s">
-        <v>30</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G111" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>8</v>
       </c>
       <c r="B112">
         <v>35</v>
       </c>
-      <c r="C112" t="s">
-        <v>30</v>
-      </c>
-      <c r="D112" t="s">
-        <v>30</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G112" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>8</v>
       </c>
       <c r="B113">
         <v>36</v>
       </c>
-      <c r="C113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D113" t="s">
-        <v>30</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G113" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2458,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -2466,7 +2444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -2474,7 +2452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -2482,7 +2460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -2498,7 +2476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -2506,7 +2484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -2514,7 +2492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -2522,7 +2500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -2530,7 +2508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -2544,7 +2522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -2558,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -2572,7 +2550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -2580,7 +2558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -2588,31 +2566,49 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>9</v>
       </c>
       <c r="B129">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E129">
+        <v>5.7</v>
+      </c>
+      <c r="F129">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>9</v>
       </c>
       <c r="B130">
         <v>21</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E130">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F130">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>9</v>
       </c>
       <c r="B131">
         <v>23</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E131">
+        <v>7</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -2620,7 +2616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -2628,7 +2624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -2636,7 +2632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -2644,7 +2640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -2652,7 +2648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -2660,7 +2656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -2668,7 +2664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -2676,7 +2672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -2684,7 +2680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -2692,7 +2688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -2700,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -2708,7 +2704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -4312,7 +4308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>16</v>
       </c>
@@ -4320,7 +4316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -4328,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -4336,7 +4332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>17</v>
       </c>
@@ -4344,7 +4340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>17</v>
       </c>
@@ -4352,7 +4348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>17</v>
       </c>
@@ -4360,7 +4356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>17</v>
       </c>
@@ -4368,7 +4364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>17</v>
       </c>
@@ -4376,7 +4372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>17</v>
       </c>
@@ -4384,7 +4380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>17</v>
       </c>
@@ -4392,7 +4388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>17</v>
       </c>
@@ -4400,7 +4396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>17</v>
       </c>
@@ -4413,11 +4409,11 @@
       <c r="D348">
         <v>10</v>
       </c>
-      <c r="E348" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G348" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>17</v>
       </c>
@@ -4430,11 +4426,11 @@
       <c r="D349">
         <v>10</v>
       </c>
-      <c r="E349" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G349" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>17</v>
       </c>
@@ -4448,7 +4444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>17</v>
       </c>
@@ -4456,7 +4452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>17</v>
       </c>
@@ -4464,7 +4460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>17</v>
       </c>
@@ -4472,7 +4468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>17</v>
       </c>
@@ -4480,7 +4476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>17</v>
       </c>
@@ -4488,7 +4484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>17</v>
       </c>
@@ -4496,7 +4492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>17</v>
       </c>
@@ -4504,7 +4500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>17</v>
       </c>
@@ -4512,7 +4508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>17</v>
       </c>
@@ -4525,11 +4521,11 @@
       <c r="D359">
         <v>12.2</v>
       </c>
-      <c r="E359" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G359" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>17</v>
       </c>
@@ -4537,16 +4533,16 @@
         <v>31</v>
       </c>
       <c r="C360" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D360" t="s">
-        <v>30</v>
-      </c>
-      <c r="E360" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="G360" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>17</v>
       </c>
@@ -4559,11 +4555,11 @@
       <c r="D361">
         <v>12</v>
       </c>
-      <c r="E361" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G361" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>17</v>
       </c>
@@ -4571,7 +4567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>17</v>
       </c>
@@ -4579,7 +4575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>17</v>
       </c>
@@ -4587,7 +4583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>17</v>
       </c>
@@ -4595,7 +4591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>18</v>
       </c>
@@ -4603,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>18</v>
       </c>
@@ -4611,7 +4607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>18</v>
       </c>
@@ -4619,7 +4615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>18</v>
       </c>
@@ -4627,7 +4623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>18</v>
       </c>
@@ -4635,7 +4631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>18</v>
       </c>
@@ -4643,7 +4639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>18</v>
       </c>
@@ -4651,7 +4647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>18</v>
       </c>
@@ -4659,7 +4655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>18</v>
       </c>
@@ -4667,7 +4663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>18</v>
       </c>
@@ -4675,7 +4671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>18</v>
       </c>
@@ -4683,7 +4679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>18</v>
       </c>
@@ -4691,18 +4687,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>18</v>
       </c>
       <c r="B378">
         <v>17</v>
       </c>
-      <c r="E378" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G378" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>18</v>
       </c>
@@ -4710,7 +4706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>18</v>
       </c>
@@ -4718,7 +4714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>18</v>
       </c>
@@ -4726,7 +4722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>18</v>
       </c>
@@ -4734,7 +4730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>18</v>
       </c>
@@ -4742,7 +4738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>18</v>
       </c>

--- a/Notes on Lines.xlsx
+++ b/Notes on Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/earthnote/Desktop/Bransfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFE11B9-9796-6D4D-B258-42DAFF469965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C57C62-CFB7-9B43-B07B-CFD75A39B6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{D5707BB0-5C9E-FE4E-9C28-50696503ED56}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="68">
   <si>
     <t>Station</t>
   </si>
@@ -41,12 +41,6 @@
     <t xml:space="preserve">Line </t>
   </si>
   <si>
-    <t>Max X</t>
-  </si>
-  <si>
-    <t>Min X</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>signal becomes less defined towards left -9, signal interference at -5.5</t>
   </si>
   <si>
-    <t>Missing first half of the line</t>
-  </si>
-  <si>
     <t>1 arrival closed to -5 comes earlier than what it should be</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>Arrival splitting observed after 1.5</t>
   </si>
   <si>
-    <t>NaN</t>
-  </si>
-  <si>
     <t>3 shot signals missing near station</t>
   </si>
   <si>
@@ -134,15 +122,6 @@
     <t xml:space="preserve">No clear arrival seen </t>
   </si>
   <si>
-    <t>3 missisng shot signal near instruments</t>
-  </si>
-  <si>
-    <t>11 arrival signals are missing, arrival splits around -0.5</t>
-  </si>
-  <si>
-    <t>12 arrival signals missing, a lot of interference near x=0</t>
-  </si>
-  <si>
     <t>2 arrivals missing, arrivals less defined after 0</t>
   </si>
   <si>
@@ -176,18 +155,9 @@
     <t>mostly horizontal arrivals</t>
   </si>
   <si>
-    <t>1st half of shots are missing, not sure whether they are the first arrivals</t>
-  </si>
-  <si>
     <t>interval from -3 to 0 are noicy</t>
   </si>
   <si>
-    <t>small set of signals missing because of station proximity</t>
-  </si>
-  <si>
-    <t>small set of signals from -4 to -2 missing because of station proximity</t>
-  </si>
-  <si>
     <t>don't know which is the first arrival</t>
   </si>
   <si>
@@ -231,6 +201,42 @@
   </si>
   <si>
     <t>I see the water wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a lot of interference near x=0</t>
+  </si>
+  <si>
+    <t>arrival splits around -0.5</t>
+  </si>
+  <si>
+    <t>sharp jump in the pick pattern</t>
+  </si>
+  <si>
+    <t>small sharp jump in the pick pattern at x= -7</t>
+  </si>
+  <si>
+    <t>hard to pick on some leftward picks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard to pick closer to the water wave </t>
+  </si>
+  <si>
+    <t>sharp discontinuity/ jump in the pick pattern</t>
+  </si>
+  <si>
+    <t>arrival splits around 3</t>
+  </si>
+  <si>
+    <t>interefernce starts near x= -4 and x=4</t>
+  </si>
+  <si>
+    <t>interefernce starts near x=2</t>
+  </si>
+  <si>
+    <t>significant amount of interefernce starts near x=3</t>
+  </si>
+  <si>
+    <t>not sure if there's a water wave within the picks</t>
   </si>
 </sst>
 </file>
@@ -246,21 +252,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,12 +297,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,21 +619,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1730744-8F8C-824E-BEC0-BFAF75AF7A04}">
-  <dimension ref="A1:G393"/>
+  <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="152.83203125" customWidth="1"/>
-    <col min="8" max="8" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="110.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,2751 +641,2642 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-11</v>
+        <v>10.9</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>10.9</v>
-      </c>
-      <c r="F2">
         <v>13.7</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>-11</v>
+        <v>9.1</v>
       </c>
       <c r="D4">
-        <v>-3</v>
-      </c>
-      <c r="E4">
-        <v>9.1</v>
-      </c>
-      <c r="F4">
         <v>9.5</v>
       </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>-11</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D5">
-        <v>-3</v>
-      </c>
-      <c r="E5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F5">
         <v>8.5</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-11</v>
+        <v>7.2</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>7.2</v>
-      </c>
-      <c r="F6">
         <v>8.5</v>
       </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-11</v>
+        <v>6.8</v>
       </c>
       <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>6.8</v>
-      </c>
-      <c r="F7">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>-11</v>
+        <v>6.4</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
-      </c>
-      <c r="E8">
-        <v>6.4</v>
-      </c>
-      <c r="F8">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>-11</v>
+        <v>5.9</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="E9">
-        <v>5.9</v>
-      </c>
-      <c r="F9">
         <v>9.6</v>
       </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>5.5</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
-      </c>
-      <c r="E10">
-        <v>5.5</v>
-      </c>
-      <c r="F10">
         <v>9.4</v>
       </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>-11</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F11">
         <v>8.6</v>
       </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>15</v>
       </c>
       <c r="C12">
-        <v>-11</v>
+        <v>4.7</v>
       </c>
       <c r="D12">
-        <v>2.5</v>
-      </c>
-      <c r="E12">
-        <v>4.7</v>
-      </c>
-      <c r="F12">
         <v>10.6</v>
       </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>16</v>
       </c>
       <c r="C13">
-        <v>-11</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F13">
         <v>11.1</v>
       </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>17</v>
       </c>
       <c r="C14">
-        <v>-11</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F14">
         <v>10.3</v>
       </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>18</v>
       </c>
       <c r="C15">
-        <v>-11</v>
+        <v>3.6</v>
       </c>
       <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>3.6</v>
-      </c>
-      <c r="F15">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>19</v>
       </c>
       <c r="C16">
-        <v>-11</v>
+        <v>3.5</v>
       </c>
       <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>3.5</v>
-      </c>
-      <c r="F16">
         <v>9.6</v>
       </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
       <c r="C17">
-        <v>-11</v>
+        <v>3.3</v>
       </c>
       <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>3.3</v>
-      </c>
-      <c r="F17">
         <v>10.7</v>
       </c>
-      <c r="G17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>21</v>
       </c>
       <c r="C18">
-        <v>-11</v>
+        <v>3.2</v>
       </c>
       <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>3.2</v>
-      </c>
-      <c r="F18">
         <v>11.2</v>
       </c>
-      <c r="G18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>23</v>
       </c>
       <c r="C19">
-        <v>-11</v>
+        <v>3.2</v>
       </c>
       <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12.4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-11</v>
+        <v>3.5</v>
       </c>
       <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>3.5</v>
-      </c>
-      <c r="F20">
         <v>11.3</v>
       </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>27</v>
       </c>
       <c r="C21">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="D21">
+        <v>8.6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>3</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>8.6</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
       </c>
       <c r="B22">
         <v>29</v>
       </c>
       <c r="C22">
-        <v>-10</v>
+        <v>3.8</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>3.8</v>
-      </c>
-      <c r="F22">
         <v>8.4</v>
       </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>30</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>31</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>32</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>33</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>34</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>35</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>36</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>-11</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>5.5</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32">
-        <v>-11</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E32" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
-      <c r="C33">
-        <v>-11</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>9</v>
       </c>
-      <c r="C34">
-        <v>-11</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>10</v>
       </c>
-      <c r="C35">
-        <v>-10.5</v>
-      </c>
-      <c r="D35">
-        <v>-3.5</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E35" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>11</v>
       </c>
       <c r="C36">
-        <v>-11</v>
+        <v>3.8</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>12</v>
       </c>
       <c r="C37">
-        <v>-10.5</v>
+        <v>2.8</v>
       </c>
       <c r="D37">
-        <v>-5</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>13</v>
       </c>
       <c r="C38">
-        <v>-11</v>
+        <v>3.2</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>14</v>
       </c>
       <c r="C39">
-        <v>-11</v>
+        <v>3.2</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>15</v>
       </c>
       <c r="C40">
-        <v>-11</v>
+        <v>2.9</v>
       </c>
       <c r="D40">
-        <v>-0.5</v>
-      </c>
-      <c r="G40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>16</v>
       </c>
       <c r="C41">
-        <v>-11</v>
+        <v>2.6</v>
       </c>
       <c r="D41">
-        <v>-0.5</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6.7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>17</v>
       </c>
       <c r="C42">
-        <v>-11</v>
+        <v>2.9</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>18</v>
       </c>
       <c r="C43">
-        <v>-11</v>
+        <v>3.2</v>
       </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>19</v>
       </c>
       <c r="C44">
-        <v>-11</v>
+        <v>3.3</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
-      </c>
-      <c r="G44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8.1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>20</v>
       </c>
-      <c r="C45">
-        <v>-11</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <v>21</v>
       </c>
-      <c r="C46">
-        <v>-11</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <v>23</v>
       </c>
-      <c r="C47">
-        <v>-11</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <v>25</v>
       </c>
-      <c r="C48">
-        <v>-11</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49">
         <v>27</v>
       </c>
-      <c r="C49">
-        <v>-11</v>
-      </c>
-      <c r="D49">
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>4</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>6</v>
       </c>
       <c r="B50">
         <v>29</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <v>30</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E51" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <v>31</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E52" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B53">
         <v>32</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E53" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>33</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E54" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B55">
         <v>34</v>
       </c>
-      <c r="G55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E55" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>35</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E56" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <v>36</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E57" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58">
-        <v>-9</v>
-      </c>
-      <c r="D58">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E59" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
-      <c r="C60">
-        <v>-7</v>
-      </c>
-      <c r="D60">
-        <v>-1</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E60" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B61">
         <v>7</v>
       </c>
-      <c r="C61">
-        <v>-8</v>
-      </c>
-      <c r="D61">
-        <v>-3</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E61" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B62">
         <v>9</v>
       </c>
-      <c r="C62" s="2">
-        <v>-11</v>
-      </c>
-      <c r="D62" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <v>10</v>
       </c>
-      <c r="C63" s="2">
-        <v>-11</v>
-      </c>
-      <c r="D63" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <v>11</v>
       </c>
-      <c r="C64">
-        <v>-11</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E64" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B65">
         <v>12</v>
       </c>
-      <c r="C65">
-        <v>-11</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E65" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>13</v>
       </c>
-      <c r="C66">
-        <v>-11</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E66" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B67">
         <v>14</v>
       </c>
-      <c r="C67">
-        <v>-11</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E67" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B68">
         <v>15</v>
       </c>
-      <c r="C68">
-        <v>-11</v>
-      </c>
-      <c r="D68">
-        <v>6</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E68" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B69">
         <v>16</v>
       </c>
-      <c r="C69">
-        <v>-11</v>
-      </c>
-      <c r="D69">
-        <v>6</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E69" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B70">
         <v>17</v>
       </c>
-      <c r="C70">
-        <v>-11</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E70" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B71">
         <v>18</v>
       </c>
       <c r="C71">
-        <v>-11</v>
+        <v>7.2</v>
       </c>
       <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B72">
         <v>19</v>
       </c>
       <c r="C72">
-        <v>-11</v>
+        <v>7.1</v>
       </c>
       <c r="D72">
-        <v>8</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9.1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B73">
         <v>20</v>
       </c>
       <c r="C73">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="D73">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>5</v>
-      </c>
-      <c r="G73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>7</v>
       </c>
       <c r="B74">
         <v>21</v>
       </c>
       <c r="C74">
-        <v>-11</v>
+        <v>6.9</v>
       </c>
       <c r="D74">
-        <v>9</v>
-      </c>
-      <c r="G74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B75">
         <v>23</v>
       </c>
       <c r="C75">
-        <v>-11</v>
+        <v>6.8</v>
       </c>
       <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>5</v>
-      </c>
-      <c r="G75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>7</v>
       </c>
       <c r="B76">
         <v>25</v>
       </c>
       <c r="C76">
-        <v>-11</v>
+        <v>4.5</v>
       </c>
       <c r="D76">
-        <v>6</v>
-      </c>
-      <c r="G76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10.1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B77">
         <v>27</v>
       </c>
       <c r="C77">
-        <v>-11</v>
+        <v>7.1</v>
       </c>
       <c r="D77">
-        <v>6</v>
-      </c>
-      <c r="G77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B78">
         <v>29</v>
       </c>
       <c r="C78">
-        <v>-11</v>
+        <v>7.4</v>
       </c>
       <c r="D78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B79">
         <v>30</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E79" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80">
         <v>31</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E80" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B81">
         <v>32</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E81" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B82">
         <v>33</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E82" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B83">
         <v>34</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E83" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B84">
         <v>35</v>
       </c>
-      <c r="G84" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B85">
         <v>36</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E85" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86">
-        <v>-10</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
+      <c r="E87" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>6</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>8</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
-      <c r="C88">
-        <v>-11</v>
-      </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B89">
         <v>7</v>
       </c>
-      <c r="C89">
-        <v>-11</v>
-      </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="G89" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B90">
         <v>9</v>
       </c>
-      <c r="C90">
-        <v>-11</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B91">
         <v>10</v>
       </c>
-      <c r="C91">
-        <v>-11</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B92">
         <v>11</v>
       </c>
-      <c r="C92">
-        <v>-11</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B93">
         <v>12</v>
       </c>
       <c r="C93">
-        <v>-11</v>
+        <v>7.5</v>
       </c>
       <c r="D93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B94">
         <v>13</v>
       </c>
       <c r="C94">
-        <v>-11</v>
+        <v>7.4</v>
       </c>
       <c r="D94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B95">
         <v>14</v>
       </c>
       <c r="C95">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="D95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B96">
         <v>15</v>
       </c>
       <c r="C96">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="D96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B97">
         <v>16</v>
       </c>
       <c r="C97">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="D97">
-        <v>3</v>
-      </c>
-      <c r="G97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B98">
         <v>17</v>
       </c>
       <c r="C98">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>3</v>
-      </c>
-      <c r="G98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B99">
         <v>18</v>
       </c>
       <c r="C99">
-        <v>-11</v>
+        <v>7.1</v>
       </c>
       <c r="D99">
-        <v>3</v>
-      </c>
-      <c r="G99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B100">
         <v>19</v>
       </c>
       <c r="C100">
-        <v>-11</v>
+        <v>7.1</v>
       </c>
       <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="G100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B101">
         <v>20</v>
       </c>
       <c r="C101">
-        <v>-11</v>
+        <v>7.2</v>
       </c>
       <c r="D101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B102">
         <v>21</v>
       </c>
       <c r="C102">
-        <v>-11</v>
+        <v>7.3</v>
       </c>
       <c r="D102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B103">
         <v>23</v>
       </c>
-      <c r="C103">
-        <v>-11</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E103" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B104">
         <v>25</v>
       </c>
-      <c r="C104">
-        <v>-11</v>
-      </c>
-      <c r="D104">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>8</v>
       </c>
       <c r="B105">
         <v>27</v>
       </c>
-      <c r="C105">
-        <v>-11</v>
-      </c>
-      <c r="D105">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B106">
         <v>29</v>
       </c>
-      <c r="C106">
-        <v>-11</v>
-      </c>
-      <c r="D106">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>8</v>
       </c>
       <c r="B107">
         <v>30</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E107" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B108">
         <v>31</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E108" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B109">
         <v>32</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E109" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B110">
         <v>33</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E110" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B111">
         <v>34</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E111" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B112">
         <v>35</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E112" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B113">
         <v>36</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>9</v>
+      <c r="E113" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>9</v>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>9</v>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B116">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>9</v>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B117">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>9</v>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B118">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>9</v>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B119">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>9</v>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B120">
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>9</v>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B121">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>9</v>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B122">
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>9</v>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B123">
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>9</v>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B124">
         <v>15</v>
       </c>
       <c r="C124">
-        <v>-11</v>
+        <v>10.4</v>
       </c>
       <c r="D124">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>9</v>
+        <v>5.6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B125">
         <v>16</v>
       </c>
       <c r="C125">
-        <v>-11</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B126">
         <v>17</v>
       </c>
       <c r="C126">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="D126">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>9</v>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B127">
         <v>18</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>9</v>
+      <c r="C127">
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B128">
         <v>19</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>9</v>
+      <c r="C128">
+        <v>9.9</v>
+      </c>
+      <c r="D128">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B129">
         <v>20</v>
       </c>
-      <c r="E129">
+      <c r="C129">
         <v>5.7</v>
       </c>
-      <c r="F129">
+      <c r="D129">
         <v>5.9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>9</v>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B130">
         <v>21</v>
       </c>
-      <c r="E130">
+      <c r="C130">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F130">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>9</v>
+      <c r="D130">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B131">
         <v>23</v>
       </c>
-      <c r="E131">
-        <v>7</v>
-      </c>
-      <c r="F131">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>9</v>
+      <c r="C131">
+        <v>6.7</v>
+      </c>
+      <c r="D131">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B132">
         <v>25</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>9</v>
+      <c r="C132">
+        <v>5.2</v>
+      </c>
+      <c r="D132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B133">
         <v>27</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>9</v>
+      <c r="C133">
+        <v>6.7</v>
+      </c>
+      <c r="D133">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B134">
         <v>29</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>9</v>
+      <c r="C134">
+        <v>6.6</v>
+      </c>
+      <c r="D134">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B135">
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>9</v>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B136">
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>9</v>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B137">
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>9</v>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B138">
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>9</v>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B139">
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>9</v>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B140">
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>9</v>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B141">
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>10</v>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>10</v>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B143">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>10</v>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>10</v>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B145">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>10</v>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B146">
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>10</v>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B147">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>10</v>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B148">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>10</v>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B149">
         <v>12</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>10</v>
+      <c r="C149">
+        <v>8</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B150">
         <v>13</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>10</v>
+      <c r="C150">
+        <v>6.7</v>
+      </c>
+      <c r="D150">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B151">
         <v>14</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>10</v>
+      <c r="C151">
+        <v>6.6</v>
+      </c>
+      <c r="D151">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B152">
         <v>15</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>10</v>
+      <c r="C152">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B153">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>10</v>
+      <c r="C153">
+        <v>8</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B154">
         <v>17</v>
       </c>
       <c r="C154">
-        <v>-11</v>
+        <v>9.5</v>
       </c>
       <c r="D154">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>10</v>
       </c>
       <c r="B155">
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>10</v>
+      <c r="C155">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B156">
         <v>19</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>10</v>
+      <c r="C156">
+        <v>9.6</v>
+      </c>
+      <c r="D156">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B157">
         <v>20</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>10</v>
+      <c r="C157">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B158">
         <v>21</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>10</v>
+      <c r="C158">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D158">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B159">
         <v>23</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>10</v>
+      <c r="C159">
+        <v>10.6</v>
+      </c>
+      <c r="D159">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B160">
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>10</v>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B161">
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>10</v>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B162">
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>10</v>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B163">
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>10</v>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B164">
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>10</v>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B165">
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>10</v>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B166">
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>10</v>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B167">
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>10</v>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B168">
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>10</v>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B169">
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B171">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B172">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172">
+        <v>8.9</v>
+      </c>
+      <c r="D172">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B173">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173">
+        <v>8.6</v>
+      </c>
+      <c r="D173">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174">
+        <v>8.5</v>
+      </c>
+      <c r="D174">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B175">
         <v>10</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175">
+        <v>7.2</v>
+      </c>
+      <c r="D175">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B176">
         <v>11</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C176">
+        <v>8.4</v>
+      </c>
+      <c r="D176">
+        <v>4.2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B177">
         <v>12</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C177">
+        <v>8.4</v>
+      </c>
+      <c r="D177">
+        <v>4.2</v>
+      </c>
+      <c r="E177" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B178">
         <v>13</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C178">
+        <v>8.5</v>
+      </c>
+      <c r="D178">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B179">
         <v>14</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C179">
+        <v>8.5</v>
+      </c>
+      <c r="D179">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B180">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C180">
+        <v>8.6</v>
+      </c>
+      <c r="D180">
+        <v>5.8</v>
+      </c>
+      <c r="E180" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B181">
         <v>16</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C181">
+        <v>8.5</v>
+      </c>
+      <c r="D181">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B182">
         <v>17</v>
       </c>
       <c r="C182">
-        <v>-11</v>
+        <v>7.8</v>
       </c>
       <c r="D182">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B183">
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B184">
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B185">
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B186">
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B187">
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B188">
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B189">
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B190">
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B191">
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B192">
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B193">
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B194">
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B195">
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B196">
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B197">
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>12</v>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>12</v>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B199">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>12</v>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B200">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>12</v>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B201">
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>12</v>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B202">
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>12</v>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B203">
         <v>10</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>12</v>
+      <c r="C203">
+        <v>8</v>
+      </c>
+      <c r="D203">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B204">
         <v>11</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>12</v>
+      <c r="C204">
+        <v>6.1</v>
+      </c>
+      <c r="D204">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B205">
         <v>12</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>12</v>
+      <c r="C205">
+        <v>6.5</v>
+      </c>
+      <c r="D205">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B206">
         <v>13</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>12</v>
+      <c r="C206">
+        <v>7</v>
+      </c>
+      <c r="D206">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B207">
         <v>14</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>12</v>
+      <c r="C207">
+        <v>6.9</v>
+      </c>
+      <c r="D207">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B208">
         <v>15</v>
       </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>12</v>
+      <c r="A209" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B209">
         <v>16</v>
       </c>
+      <c r="C209">
+        <v>7.4</v>
+      </c>
+      <c r="D209">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>12</v>
+      <c r="A210" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B210">
         <v>17</v>
       </c>
       <c r="C210">
-        <v>-11</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>12</v>
+      <c r="A211" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B211">
         <v>18</v>
       </c>
+      <c r="C211">
+        <v>8.1</v>
+      </c>
+      <c r="D211">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>12</v>
+      <c r="A212" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B212">
         <v>19</v>
       </c>
+      <c r="C212">
+        <v>7.5</v>
+      </c>
+      <c r="D212">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>12</v>
+      <c r="A213" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B213">
         <v>20</v>
       </c>
+      <c r="C213">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D213">
+        <v>4</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>12</v>
+      <c r="A214" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B214">
         <v>21</v>
       </c>
+      <c r="C214">
+        <v>7.2</v>
+      </c>
+      <c r="D214">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>12</v>
+      <c r="A215" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B215">
         <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>12</v>
+      <c r="A216" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B216">
         <v>25</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>12</v>
+      <c r="A217" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B217">
         <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>12</v>
+      <c r="A218" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B218">
         <v>29</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>12</v>
+      <c r="A219" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B219">
         <v>30</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>12</v>
+      <c r="A220" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B220">
         <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>12</v>
+      <c r="A221" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B221">
         <v>32</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>12</v>
+      <c r="A222" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B222">
         <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>12</v>
+      <c r="A223" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B223">
         <v>34</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>12</v>
+      <c r="A224" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B224">
         <v>35</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>12</v>
+      <c r="A225" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B225">
         <v>36</v>
@@ -3380,7 +3284,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -3388,7 +3292,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -3396,7 +3300,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B228">
         <v>5</v>
@@ -3404,7 +3308,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B229">
         <v>7</v>
@@ -3412,7 +3316,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B230">
         <v>9</v>
@@ -3420,7 +3324,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B231">
         <v>10</v>
@@ -3428,7 +3332,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B232">
         <v>11</v>
@@ -3436,61 +3340,91 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B233">
         <v>12</v>
       </c>
+      <c r="C233">
+        <v>7.2</v>
+      </c>
+      <c r="D233">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B234">
         <v>13</v>
       </c>
+      <c r="C234">
+        <v>8</v>
+      </c>
+      <c r="D234">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B235">
         <v>14</v>
       </c>
+      <c r="C235">
+        <v>7.2</v>
+      </c>
+      <c r="D235">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B236">
         <v>15</v>
       </c>
+      <c r="C236">
+        <v>7.3</v>
+      </c>
+      <c r="D236">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B237">
         <v>16</v>
       </c>
+      <c r="C237">
+        <v>7</v>
+      </c>
+      <c r="D237">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B238">
         <v>17</v>
       </c>
       <c r="C238">
-        <v>-5</v>
+        <v>6.3</v>
       </c>
       <c r="D238">
-        <v>10</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B239">
         <v>18</v>
@@ -3498,7 +3432,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B240">
         <v>19</v>
@@ -3506,7 +3440,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B241">
         <v>20</v>
@@ -3514,7 +3448,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B242">
         <v>21</v>
@@ -3522,7 +3456,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B243">
         <v>23</v>
@@ -3530,7 +3464,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B244">
         <v>25</v>
@@ -3538,7 +3472,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B245">
         <v>27</v>
@@ -3546,7 +3480,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B246">
         <v>29</v>
@@ -3554,7 +3488,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B247">
         <v>30</v>
@@ -3562,7 +3496,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B248">
         <v>31</v>
@@ -3570,7 +3504,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B249">
         <v>32</v>
@@ -3578,7 +3512,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B250">
         <v>33</v>
@@ -3586,7 +3520,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B251">
         <v>34</v>
@@ -3594,7 +3528,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B252">
         <v>35</v>
@@ -3602,243 +3536,231 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B253">
         <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>14</v>
+      <c r="A254" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B254">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>14</v>
+      <c r="A255" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B255">
         <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>14</v>
+      <c r="A256" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B256">
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>14</v>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B257">
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>14</v>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B258">
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>14</v>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B259">
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>14</v>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B260">
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>14</v>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B261">
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>14</v>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B262">
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>14</v>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B263">
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>14</v>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B264">
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>14</v>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B265">
         <v>16</v>
       </c>
-      <c r="C265">
-        <v>-8</v>
-      </c>
-      <c r="D265">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>14</v>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B266">
         <v>17</v>
       </c>
-      <c r="C266">
-        <v>-8</v>
-      </c>
-      <c r="D266">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>14</v>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B267">
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>14</v>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B268">
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>14</v>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B269">
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>14</v>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B270">
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>14</v>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B271">
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>14</v>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B272">
         <v>25</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>14</v>
+      <c r="A273" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B273">
         <v>27</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>14</v>
+      <c r="A274" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B274">
         <v>29</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>14</v>
+      <c r="A275" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B275">
         <v>30</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>14</v>
+      <c r="A276" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B276">
         <v>31</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>14</v>
+      <c r="A277" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B277">
         <v>32</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>14</v>
+      <c r="A278" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B278">
         <v>33</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>14</v>
+      <c r="A279" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B279">
         <v>34</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>14</v>
+      <c r="A280" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B280">
         <v>35</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>14</v>
+      <c r="A281" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B281">
         <v>36</v>
@@ -3846,7 +3768,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -3854,7 +3776,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -3862,7 +3784,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B284">
         <v>5</v>
@@ -3870,7 +3792,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B285">
         <v>7</v>
@@ -3878,7 +3800,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B286">
         <v>9</v>
@@ -3886,7 +3808,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B287">
         <v>10</v>
@@ -3894,147 +3816,135 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B288">
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B289">
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B290">
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B291">
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B292">
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B293">
         <v>16</v>
       </c>
-      <c r="C293">
-        <v>-4</v>
-      </c>
-      <c r="D293">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B294">
         <v>17</v>
       </c>
-      <c r="C294">
-        <v>-4</v>
-      </c>
-      <c r="D294">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B295">
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B296">
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B297">
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B298">
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B299">
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B300">
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B301">
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B302">
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B303">
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B304">
         <v>31</v>
@@ -4042,7 +3952,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B305">
         <v>32</v>
@@ -4050,7 +3960,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B306">
         <v>33</v>
@@ -4058,7 +3968,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B307">
         <v>34</v>
@@ -4066,7 +3976,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B308">
         <v>35</v>
@@ -4074,752 +3984,704 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B309">
         <v>36</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>16</v>
+      <c r="A310" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B310">
         <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>16</v>
+      <c r="A311" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B311">
         <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>16</v>
+      <c r="A312" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B312">
         <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>16</v>
+      <c r="A313" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B313">
         <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>16</v>
+      <c r="A314" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B314">
         <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>16</v>
+      <c r="A315" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B315">
         <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>16</v>
+      <c r="A316" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B316">
         <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>16</v>
+      <c r="A317" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B317">
         <v>12</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>16</v>
+      <c r="A318" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B318">
         <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>16</v>
+      <c r="A319" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B319">
         <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>16</v>
+      <c r="A320" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B320">
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>16</v>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B321">
         <v>16</v>
       </c>
-      <c r="C321">
-        <v>-1</v>
-      </c>
-      <c r="D321">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>16</v>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B322">
         <v>17</v>
       </c>
-      <c r="C322">
-        <v>-4</v>
-      </c>
-      <c r="D322">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>16</v>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B323">
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>16</v>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B324">
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>16</v>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B325">
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>16</v>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B326">
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>16</v>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B327">
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>16</v>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B328">
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>16</v>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B329">
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>16</v>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B330">
         <v>29</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>16</v>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B331">
         <v>30</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>16</v>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B332">
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>16</v>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B333">
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>16</v>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B334">
         <v>33</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>16</v>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B335">
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>16</v>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B336">
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>16</v>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B337">
         <v>36</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B338">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B339">
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B340">
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B341">
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B342">
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B343">
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B344">
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B345">
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B346">
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B347">
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B348">
         <v>15</v>
       </c>
-      <c r="C348">
-        <v>-2</v>
-      </c>
-      <c r="D348">
-        <v>10</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E348" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B349">
         <v>16</v>
       </c>
-      <c r="C349">
-        <v>-2</v>
-      </c>
-      <c r="D349">
-        <v>10</v>
-      </c>
-      <c r="G349" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E349" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B350">
         <v>17</v>
       </c>
-      <c r="C350">
-        <v>0</v>
-      </c>
-      <c r="D350">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B351">
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B352">
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B353">
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B354">
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B355">
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B356">
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B357">
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B358">
         <v>29</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B359">
         <v>30</v>
       </c>
-      <c r="C359">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D359">
-        <v>12.2</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E359" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B360">
         <v>31</v>
       </c>
-      <c r="C360" t="s">
+      <c r="E360" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D360" t="s">
-        <v>28</v>
-      </c>
-      <c r="G360" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B361">
         <v>32</v>
       </c>
-      <c r="C361">
-        <v>9</v>
-      </c>
-      <c r="D361">
-        <v>12</v>
-      </c>
-      <c r="G361" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E361" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B362">
         <v>33</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B363">
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B364">
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B365">
         <v>36</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>18</v>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B366">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>18</v>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B367">
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>18</v>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B368">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
-        <v>18</v>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B369">
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
-        <v>18</v>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B370">
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>18</v>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B371">
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>18</v>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B372">
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
-        <v>18</v>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B373">
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>18</v>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B374">
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>18</v>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B375">
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
-        <v>18</v>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B376">
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>18</v>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B377">
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>18</v>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B378">
         <v>17</v>
       </c>
-      <c r="G378" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>18</v>
+      <c r="E378" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B379">
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>18</v>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B380">
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>18</v>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B381">
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>18</v>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B382">
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>18</v>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B383">
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>18</v>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B384">
         <v>25</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>18</v>
+      <c r="A385" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B385">
         <v>27</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>18</v>
+      <c r="A386" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B386">
         <v>29</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>18</v>
+      <c r="A387" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B387">
         <v>30</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>18</v>
+      <c r="A388" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B388">
         <v>31</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
-        <v>18</v>
+      <c r="A389" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B389">
         <v>32</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>18</v>
+      <c r="A390" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B390">
         <v>33</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>18</v>
+      <c r="A391" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B391">
         <v>34</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>18</v>
+      <c r="A392" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B392">
         <v>35</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>18</v>
+      <c r="A393" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B393">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Notes on Lines.xlsx
+++ b/Notes on Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/earthnote/Desktop/Bransfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C57C62-CFB7-9B43-B07B-CFD75A39B6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD0BE38-BE28-8446-A60C-DD52677AB204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{D5707BB0-5C9E-FE4E-9C28-50696503ED56}"/>
   </bookViews>

--- a/Notes on Lines.xlsx
+++ b/Notes on Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/earthnote/Desktop/Bransfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD0BE38-BE28-8446-A60C-DD52677AB204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4763B264-9F31-7E47-8250-EDF0B31F1564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{D5707BB0-5C9E-FE4E-9C28-50696503ED56}"/>
   </bookViews>
@@ -265,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +284,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -297,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -305,6 +311,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1730744-8F8C-824E-BEC0-BFAF75AF7A04}">
   <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E239" sqref="E239"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3337,6 +3344,12 @@
       <c r="B232">
         <v>11</v>
       </c>
+      <c r="C232">
+        <v>9</v>
+      </c>
+      <c r="D232">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -3566,7 +3579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>12</v>
       </c>
@@ -3574,7 +3587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>12</v>
       </c>
@@ -3582,7 +3595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>12</v>
       </c>
@@ -3590,7 +3603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>12</v>
       </c>
@@ -3598,7 +3611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>12</v>
       </c>
@@ -3606,7 +3619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>12</v>
       </c>
@@ -3614,7 +3627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>12</v>
       </c>
@@ -3622,7 +3635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>12</v>
       </c>
@@ -3630,7 +3643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>12</v>
       </c>
@@ -3638,7 +3651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>12</v>
       </c>
@@ -3646,7 +3659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>12</v>
       </c>
@@ -3654,7 +3667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>12</v>
       </c>
@@ -3662,7 +3675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>12</v>
       </c>
@@ -3670,7 +3683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>12</v>
       </c>
@@ -3678,55 +3691,91 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B271">
         <v>23</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C271">
+        <v>7.2</v>
+      </c>
+      <c r="D271" s="7">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B272">
         <v>25</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C272">
+        <v>8</v>
+      </c>
+      <c r="D272" s="7">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B273">
         <v>27</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C273">
+        <v>7.2</v>
+      </c>
+      <c r="D273" s="7">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B274">
         <v>29</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C274">
+        <v>7.3</v>
+      </c>
+      <c r="D274" s="7">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B275">
         <v>30</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C275">
+        <v>7</v>
+      </c>
+      <c r="D275" s="7">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B276">
         <v>31</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276">
+        <v>6.3</v>
+      </c>
+      <c r="D276" s="7">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>12</v>
       </c>
@@ -3734,7 +3783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>12</v>
       </c>
@@ -3742,7 +3791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>12</v>
       </c>
@@ -3750,7 +3799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>12</v>
       </c>
@@ -3758,7 +3807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>12</v>
       </c>
@@ -3766,7 +3815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -3774,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -3782,7 +3831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -3790,7 +3839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -3798,7 +3847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -3806,7 +3855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>13</v>
       </c>
@@ -3814,7 +3863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>13</v>
       </c>

--- a/Notes on Lines.xlsx
+++ b/Notes on Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/earthnote/Desktop/Bransfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4763B264-9F31-7E47-8250-EDF0B31F1564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C72D05A-383F-B844-ADF7-514F5FF8FBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{D5707BB0-5C9E-FE4E-9C28-50696503ED56}"/>
   </bookViews>
@@ -140,15 +140,9 @@
     <t>can see a small pattern in the signal but hard to pick which one is the first arrival</t>
   </si>
   <si>
-    <t>a lot of noise in the data,hard to clearly see the arrival</t>
-  </si>
-  <si>
     <t>clear signal until x=0,first arrival is not detectable past x=0</t>
   </si>
   <si>
-    <t>a lot of noise in the data,hard to clearly see the arrival past -3.5</t>
-  </si>
-  <si>
     <t>clear arrivals until x=1, arrival splitting at 1</t>
   </si>
   <si>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>not sure if there's a water wave within the picks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a lot of noise in the data,hard to clearly </t>
+  </si>
+  <si>
+    <t>a lot of noise in the data,hard to clearly see the arrival, picked on hydrophone instead</t>
   </si>
 </sst>
 </file>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1730744-8F8C-824E-BEC0-BFAF75AF7A04}">
   <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E233" sqref="E233"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,10 +648,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -697,7 +697,7 @@
         <v>9.5</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>9.6</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -799,7 +799,7 @@
         <v>9.4</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -901,7 +901,7 @@
         <v>9.6</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
         <v>10.7</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>11.2</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -986,7 +986,7 @@
         <v>8.6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1122,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1143,8 +1143,14 @@
       <c r="B35">
         <v>10</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>37</v>
+      <c r="C35">
+        <v>3.5</v>
+      </c>
+      <c r="D35">
+        <v>5.8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1161,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1178,7 +1184,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1223,7 +1229,7 @@
         <v>7.4</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1240,7 +1246,7 @@
         <v>6.7</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1274,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1291,7 +1297,7 @@
         <v>8.1</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1302,7 +1308,7 @@
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1324,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1453,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1464,7 +1470,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1475,7 +1481,7 @@
         <v>7</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1488,7 +1494,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1501,7 +1507,7 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1512,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1523,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1534,7 +1540,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1545,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1556,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1567,7 +1573,7 @@
         <v>16</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1578,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1595,7 +1601,7 @@
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1612,7 +1618,7 @@
         <v>9.1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -1643,7 +1649,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1660,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1677,7 +1683,7 @@
         <v>10.1</v>
       </c>
       <c r="E76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1694,7 +1700,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1711,7 +1717,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1807,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -1826,7 +1832,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2001,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2199,7 +2205,7 @@
         <v>5.6</v>
       </c>
       <c r="E124" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2216,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -2471,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -2780,7 +2786,7 @@
         <v>4.2</v>
       </c>
       <c r="E176" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -2797,7 +2803,7 @@
         <v>4.2</v>
       </c>
       <c r="E177" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -2842,7 +2848,7 @@
         <v>5.8</v>
       </c>
       <c r="E180" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -4351,7 +4357,7 @@
         <v>15</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -4362,7 +4368,7 @@
         <v>16</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -4445,7 +4451,7 @@
         <v>30</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -4467,7 +4473,7 @@
         <v>32</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -4606,7 +4612,7 @@
         <v>17</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">

--- a/Notes on Lines.xlsx
+++ b/Notes on Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/earthnote/Desktop/Bransfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C72D05A-383F-B844-ADF7-514F5FF8FBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8BBDE-348D-6B4A-B6B6-B91D522E333F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{D5707BB0-5C9E-FE4E-9C28-50696503ED56}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t>interval from -3 to 0 are noicy</t>
   </si>
   <si>
-    <t>don't know which is the first arrival</t>
-  </si>
-  <si>
     <t>interefernce starts near x=1, it dissapears around x=3</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>a lot of noise in the data,hard to clearly see the arrival, picked on hydrophone instead</t>
+  </si>
+  <si>
+    <t>second half of this line, can't find 1st arrival</t>
   </si>
 </sst>
 </file>
@@ -265,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,12 +284,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -303,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -311,7 +305,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1730744-8F8C-824E-BEC0-BFAF75AF7A04}">
   <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -697,7 +690,7 @@
         <v>9.5</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -748,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -782,7 +775,7 @@
         <v>9.6</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -799,7 +792,7 @@
         <v>9.4</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -901,7 +894,7 @@
         <v>9.6</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -918,7 +911,7 @@
         <v>10.7</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -935,7 +928,7 @@
         <v>11.2</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -986,7 +979,7 @@
         <v>8.6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1111,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1150,7 +1143,7 @@
         <v>5.8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1184,7 +1177,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1229,7 +1222,7 @@
         <v>7.4</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1246,7 +1239,7 @@
         <v>6.7</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1280,7 +1273,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1297,7 +1290,7 @@
         <v>8.1</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1308,7 +1301,7 @@
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1330,7 +1323,7 @@
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1459,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1470,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1481,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1494,7 +1487,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1507,7 +1500,7 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1518,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1529,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1540,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1551,7 +1544,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1562,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1573,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1584,7 +1577,7 @@
         <v>17</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1601,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1618,7 +1611,7 @@
         <v>9.1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -1649,7 +1642,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1666,7 +1659,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1683,7 +1676,7 @@
         <v>10.1</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1700,7 +1693,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1717,7 +1710,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1813,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -1832,7 +1825,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2007,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2205,7 +2198,7 @@
         <v>5.6</v>
       </c>
       <c r="E124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2222,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -2477,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -2786,7 +2779,7 @@
         <v>4.2</v>
       </c>
       <c r="E176" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -2803,7 +2796,7 @@
         <v>4.2</v>
       </c>
       <c r="E177" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -2848,7 +2841,7 @@
         <v>5.8</v>
       </c>
       <c r="E180" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -3704,12 +3697,8 @@
       <c r="B271">
         <v>23</v>
       </c>
-      <c r="C271">
-        <v>7.2</v>
-      </c>
-      <c r="D271" s="7">
-        <v>7.4</v>
-      </c>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
@@ -3718,12 +3707,8 @@
       <c r="B272">
         <v>25</v>
       </c>
-      <c r="C272">
-        <v>8</v>
-      </c>
-      <c r="D272" s="7">
-        <v>7.4</v>
-      </c>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
@@ -3732,12 +3717,8 @@
       <c r="B273">
         <v>27</v>
       </c>
-      <c r="C273">
-        <v>7.2</v>
-      </c>
-      <c r="D273" s="7">
-        <v>7.3</v>
-      </c>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
@@ -3746,12 +3727,8 @@
       <c r="B274">
         <v>29</v>
       </c>
-      <c r="C274">
-        <v>7.3</v>
-      </c>
-      <c r="D274" s="7">
-        <v>7.3</v>
-      </c>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
@@ -3760,12 +3737,8 @@
       <c r="B275">
         <v>30</v>
       </c>
-      <c r="C275">
-        <v>7</v>
-      </c>
-      <c r="D275" s="7">
-        <v>7.4</v>
-      </c>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
@@ -3774,12 +3747,8 @@
       <c r="B276">
         <v>31</v>
       </c>
-      <c r="C276">
-        <v>6.3</v>
-      </c>
-      <c r="D276" s="7">
-        <v>7.8</v>
-      </c>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
@@ -4357,7 +4326,7 @@
         <v>15</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -4368,7 +4337,7 @@
         <v>16</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -4451,7 +4420,7 @@
         <v>30</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -4473,7 +4442,7 @@
         <v>32</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -4612,7 +4581,7 @@
         <v>17</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">

--- a/Notes on Lines.xlsx
+++ b/Notes on Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/earthnote/Desktop/Bransfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8BBDE-348D-6B4A-B6B6-B91D522E333F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028CE4D2-A218-CD48-9811-FAE03C20F91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{D5707BB0-5C9E-FE4E-9C28-50696503ED56}"/>
   </bookViews>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1730744-8F8C-824E-BEC0-BFAF75AF7A04}">
   <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E267" sqref="E267"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Notes on Lines.xlsx
+++ b/Notes on Lines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/earthnote/Desktop/Bransfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028CE4D2-A218-CD48-9811-FAE03C20F91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FE4260-2AB4-4241-9A5E-6EB6917FFA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{D5707BB0-5C9E-FE4E-9C28-50696503ED56}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="64">
   <si>
     <t>Station</t>
   </si>
@@ -86,9 +86,6 @@
     <t>BRA27</t>
   </si>
   <si>
-    <t>signal becomes less defined towards left -9, signal interference at -5.5</t>
-  </si>
-  <si>
     <t>1 arrival closed to -5 comes earlier than what it should be</t>
   </si>
   <si>
@@ -143,12 +140,6 @@
     <t>clear signal until x=0,first arrival is not detectable past x=0</t>
   </si>
   <si>
-    <t>clear arrivals until x=1, arrival splitting at 1</t>
-  </si>
-  <si>
-    <t>mostly horizontal arrivals</t>
-  </si>
-  <si>
     <t>interval from -3 to 0 are noicy</t>
   </si>
   <si>
@@ -158,9 +149,6 @@
     <t>interefernce starts near x=3, it dissapears around x=6</t>
   </si>
   <si>
-    <t>first half missing</t>
-  </si>
-  <si>
     <t>signal is around 2 secs, can't identify 1st arrival</t>
   </si>
   <si>
@@ -176,18 +164,12 @@
     <t>clear picks</t>
   </si>
   <si>
-    <t>clear picks until 0</t>
-  </si>
-  <si>
     <t>Left Range</t>
   </si>
   <si>
     <t>Right Range</t>
   </si>
   <si>
-    <t>wave splitting occurs at x=-3.</t>
-  </si>
-  <si>
     <t>water wave present in a small interval</t>
   </si>
   <si>
@@ -227,16 +209,22 @@
     <t>significant amount of interefernce starts near x=3</t>
   </si>
   <si>
-    <t>not sure if there's a water wave within the picks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a lot of noise in the data,hard to clearly </t>
-  </si>
-  <si>
-    <t>a lot of noise in the data,hard to clearly see the arrival, picked on hydrophone instead</t>
-  </si>
-  <si>
-    <t>second half of this line, can't find 1st arrival</t>
+    <t>low amplitude picks</t>
+  </si>
+  <si>
+    <t>Used hydrophone channel</t>
+  </si>
+  <si>
+    <t>very low amp picks</t>
+  </si>
+  <si>
+    <t>used hydrophone channel</t>
+  </si>
+  <si>
+    <t>picked on hydrophone</t>
+  </si>
+  <si>
+    <t>a lot of noise incoperated to signals</t>
   </si>
 </sst>
 </file>
@@ -259,7 +247,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -302,9 +289,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1730744-8F8C-824E-BEC0-BFAF75AF7A04}">
   <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,10 +628,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -657,15 +644,6 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>10.9</v>
-      </c>
-      <c r="D2">
-        <v>13.7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -674,7 +652,7 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -690,7 +668,7 @@
         <v>9.5</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -707,7 +685,7 @@
         <v>8.5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -724,7 +702,7 @@
         <v>8.5</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -741,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -758,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -775,7 +753,7 @@
         <v>9.6</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -792,7 +770,7 @@
         <v>9.4</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -809,7 +787,7 @@
         <v>8.6</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -826,7 +804,7 @@
         <v>10.6</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -843,7 +821,7 @@
         <v>11.1</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -860,7 +838,7 @@
         <v>10.3</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -877,7 +855,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -894,7 +872,7 @@
         <v>9.6</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -911,7 +889,7 @@
         <v>10.7</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -928,7 +906,7 @@
         <v>11.2</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -945,7 +923,7 @@
         <v>12.4</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -962,7 +940,7 @@
         <v>11.3</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -979,7 +957,7 @@
         <v>8.6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -996,7 +974,7 @@
         <v>8.4</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1007,7 +985,7 @@
         <v>30</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1018,7 +996,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1029,7 +1007,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1040,7 +1018,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1051,7 +1029,7 @@
         <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1062,7 +1040,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1073,7 +1051,7 @@
         <v>36</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1084,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1103,9 +1081,7 @@
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1114,8 +1090,11 @@
       <c r="B33">
         <v>7</v>
       </c>
-      <c r="E33" t="s">
-        <v>37</v>
+      <c r="C33">
+        <v>4.8</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1125,8 +1104,11 @@
       <c r="B34">
         <v>9</v>
       </c>
-      <c r="E34" t="s">
-        <v>36</v>
+      <c r="C34">
+        <v>4.5</v>
+      </c>
+      <c r="D34">
+        <v>9.4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1142,8 +1124,8 @@
       <c r="D35">
         <v>5.8</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>65</v>
+      <c r="E35" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1160,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1176,8 +1158,8 @@
       <c r="D37">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>66</v>
+      <c r="E37" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1222,7 +1204,7 @@
         <v>7.4</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1239,7 +1221,7 @@
         <v>6.7</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1256,7 +1238,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1273,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1290,7 +1272,7 @@
         <v>8.1</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1301,7 +1283,7 @@
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1312,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1323,7 +1305,7 @@
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1334,7 +1316,7 @@
         <v>25</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1345,7 +1327,7 @@
         <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1356,7 +1338,7 @@
         <v>29</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1367,7 +1349,7 @@
         <v>30</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1378,7 +1360,7 @@
         <v>31</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1389,7 +1371,7 @@
         <v>32</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1400,7 +1382,7 @@
         <v>33</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1411,7 +1393,7 @@
         <v>34</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1422,7 +1404,7 @@
         <v>35</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1433,7 +1415,7 @@
         <v>36</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1451,9 +1433,7 @@
       <c r="B59">
         <v>3</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -1462,9 +1442,7 @@
       <c r="B60">
         <v>5</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -1473,8 +1451,14 @@
       <c r="B61">
         <v>7</v>
       </c>
+      <c r="C61">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D61">
+        <v>8.1</v>
+      </c>
       <c r="E61" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1484,10 +1468,14 @@
       <c r="B62">
         <v>9</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="C62" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D62" s="2">
+        <v>7.8</v>
+      </c>
       <c r="E62" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1497,10 +1485,14 @@
       <c r="B63">
         <v>10</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="C63" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>7.5</v>
+      </c>
       <c r="E63" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1511,7 +1503,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1522,7 +1514,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1533,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1544,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1555,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1566,7 +1558,7 @@
         <v>16</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1577,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1594,7 +1586,7 @@
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1611,7 +1603,7 @@
         <v>9.1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -1642,7 +1634,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1659,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1676,7 +1668,7 @@
         <v>10.1</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1693,7 +1685,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1710,7 +1702,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E78" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1721,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -1732,7 +1724,7 @@
         <v>31</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -1743,7 +1735,7 @@
         <v>32</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -1754,7 +1746,7 @@
         <v>33</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -1765,7 +1757,7 @@
         <v>34</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1776,7 +1768,7 @@
         <v>35</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -1787,7 +1779,7 @@
         <v>36</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -1805,9 +1797,7 @@
       <c r="B87">
         <v>3</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -1825,7 +1815,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2000,7 +1990,7 @@
         <v>23</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2035,7 +2025,7 @@
         <v>30</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2046,7 +2036,7 @@
         <v>31</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2057,7 +2047,7 @@
         <v>32</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2068,7 +2058,7 @@
         <v>33</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2079,7 +2069,7 @@
         <v>34</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2090,7 +2080,7 @@
         <v>35</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2101,7 +2091,7 @@
         <v>36</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2198,7 +2188,7 @@
         <v>5.6</v>
       </c>
       <c r="E124" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2215,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -2401,7 +2391,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B142">
@@ -2409,7 +2399,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B143">
@@ -2417,7 +2407,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B144">
@@ -2425,7 +2415,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B145">
@@ -2433,7 +2423,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B146">
@@ -2441,7 +2431,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B147">
@@ -2449,7 +2439,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B148">
@@ -2457,7 +2447,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B149">
@@ -2470,11 +2460,11 @@
         <v>4</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B150">
@@ -2488,7 +2478,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B151">
@@ -2502,7 +2492,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B152">
@@ -2516,7 +2506,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B153">
@@ -2530,7 +2520,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B154">
@@ -2544,7 +2534,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B155">
@@ -2558,7 +2548,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B156">
@@ -2572,7 +2562,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B157">
@@ -2586,7 +2576,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B158">
@@ -2600,7 +2590,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B159">
@@ -2614,7 +2604,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B160">
@@ -2622,7 +2612,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B161">
@@ -2630,7 +2620,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B162">
@@ -2638,7 +2628,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B163">
@@ -2646,7 +2636,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B164">
@@ -2654,7 +2644,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B165">
@@ -2662,7 +2652,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B166">
@@ -2670,7 +2660,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B167">
@@ -2678,7 +2668,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B168">
@@ -2686,7 +2676,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B169">
@@ -2700,6 +2690,9 @@
       <c r="B170">
         <v>1</v>
       </c>
+      <c r="E170" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
@@ -2708,6 +2701,12 @@
       <c r="B171">
         <v>3</v>
       </c>
+      <c r="C171">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D171">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
@@ -2779,7 +2778,7 @@
         <v>4.2</v>
       </c>
       <c r="E176" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -2796,7 +2795,7 @@
         <v>4.2</v>
       </c>
       <c r="E177" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -2840,9 +2839,6 @@
       <c r="D180">
         <v>5.8</v>
       </c>
-      <c r="E180" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -2879,6 +2875,12 @@
       <c r="B183">
         <v>18</v>
       </c>
+      <c r="C183">
+        <v>7.5</v>
+      </c>
+      <c r="D183">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
@@ -2887,6 +2889,9 @@
       <c r="B184">
         <v>19</v>
       </c>
+      <c r="E184" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
@@ -2895,6 +2900,9 @@
       <c r="B185">
         <v>20</v>
       </c>
+      <c r="E185" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
@@ -2993,7 +3001,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="6" t="s">
+      <c r="A198" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B198">
@@ -3001,7 +3009,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B199">
@@ -3009,7 +3017,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B200">
@@ -3017,7 +3025,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B201">
@@ -3025,7 +3033,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B202">
@@ -3033,7 +3041,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="6" t="s">
+      <c r="A203" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B203">
@@ -3047,7 +3055,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B204">
@@ -3061,7 +3069,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B205">
@@ -3075,7 +3083,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="6" t="s">
+      <c r="A206" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B206">
@@ -3089,7 +3097,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B207">
@@ -3103,7 +3111,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B208">
@@ -3117,7 +3125,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B209">
@@ -3131,7 +3139,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="s">
+      <c r="A210" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B210">
@@ -3145,7 +3153,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="6" t="s">
+      <c r="A211" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B211">
@@ -3159,7 +3167,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="6" t="s">
+      <c r="A212" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B212">
@@ -3173,7 +3181,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B213">
@@ -3187,7 +3195,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B214">
@@ -3201,7 +3209,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B215">
@@ -3209,7 +3217,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B216">
@@ -3217,7 +3225,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B217">
@@ -3225,7 +3233,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B218">
@@ -3233,7 +3241,7 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B219">
@@ -3241,7 +3249,7 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B220">
@@ -3249,7 +3257,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B221">
@@ -3257,7 +3265,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="6" t="s">
+      <c r="A222" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B222">
@@ -3265,7 +3273,7 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="6" t="s">
+      <c r="A223" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B223">
@@ -3273,7 +3281,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="6" t="s">
+      <c r="A224" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B224">
@@ -3281,7 +3289,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B225">
@@ -3555,7 +3563,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="6" t="s">
+      <c r="A254" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B254">
@@ -3563,7 +3571,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="6" t="s">
+      <c r="A255" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B255">
@@ -3571,7 +3579,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="6" t="s">
+      <c r="A256" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B256">
@@ -3579,7 +3587,7 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="6" t="s">
+      <c r="A257" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B257">
@@ -3587,7 +3595,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="6" t="s">
+      <c r="A258" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B258">
@@ -3595,7 +3603,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="6" t="s">
+      <c r="A259" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B259">
@@ -3603,7 +3611,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="6" t="s">
+      <c r="A260" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B260">
@@ -3611,7 +3619,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="6" t="s">
+      <c r="A261" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B261">
@@ -3619,7 +3627,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="6" t="s">
+      <c r="A262" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B262">
@@ -3627,7 +3635,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="6" t="s">
+      <c r="A263" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B263">
@@ -3635,7 +3643,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="6" t="s">
+      <c r="A264" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B264">
@@ -3643,7 +3651,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="6" t="s">
+      <c r="A265" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B265">
@@ -3651,7 +3659,7 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="6" t="s">
+      <c r="A266" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B266">
@@ -3659,7 +3667,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="6" t="s">
+      <c r="A267" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B267">
@@ -3667,7 +3675,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="6" t="s">
+      <c r="A268" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B268">
@@ -3675,7 +3683,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="6" t="s">
+      <c r="A269" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B269">
@@ -3683,7 +3691,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="6" t="s">
+      <c r="A270" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B270">
@@ -3691,7 +3699,7 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="6" t="s">
+      <c r="A271" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B271">
@@ -3701,7 +3709,7 @@
       <c r="D271" s="3"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="6" t="s">
+      <c r="A272" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B272">
@@ -3711,7 +3719,7 @@
       <c r="D272" s="3"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="6" t="s">
+      <c r="A273" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B273">
@@ -3721,7 +3729,7 @@
       <c r="D273" s="3"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="6" t="s">
+      <c r="A274" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B274">
@@ -3731,7 +3739,7 @@
       <c r="D274" s="3"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="6" t="s">
+      <c r="A275" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B275">
@@ -3741,7 +3749,7 @@
       <c r="D275" s="3"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="6" t="s">
+      <c r="A276" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B276">
@@ -3751,7 +3759,7 @@
       <c r="D276" s="3"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="6" t="s">
+      <c r="A277" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B277">
@@ -3759,7 +3767,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="6" t="s">
+      <c r="A278" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B278">
@@ -3767,7 +3775,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="6" t="s">
+      <c r="A279" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B279">
@@ -3775,7 +3783,7 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="6" t="s">
+      <c r="A280" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B280">
@@ -3783,7 +3791,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="6" t="s">
+      <c r="A281" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B281">
@@ -4015,7 +4023,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="6" t="s">
+      <c r="A310" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B310">
@@ -4023,7 +4031,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="6" t="s">
+      <c r="A311" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B311">
@@ -4031,7 +4039,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="6" t="s">
+      <c r="A312" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B312">
@@ -4039,7 +4047,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="6" t="s">
+      <c r="A313" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B313">
@@ -4047,7 +4055,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="6" t="s">
+      <c r="A314" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B314">
@@ -4055,7 +4063,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" s="6" t="s">
+      <c r="A315" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B315">
@@ -4063,7 +4071,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="6" t="s">
+      <c r="A316" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B316">
@@ -4071,7 +4079,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="6" t="s">
+      <c r="A317" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B317">
@@ -4079,7 +4087,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="6" t="s">
+      <c r="A318" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B318">
@@ -4087,7 +4095,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="6" t="s">
+      <c r="A319" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B319">
@@ -4095,7 +4103,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="6" t="s">
+      <c r="A320" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B320">
@@ -4103,7 +4111,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="6" t="s">
+      <c r="A321" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B321">
@@ -4111,7 +4119,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="6" t="s">
+      <c r="A322" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B322">
@@ -4119,7 +4127,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="6" t="s">
+      <c r="A323" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B323">
@@ -4127,7 +4135,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="6" t="s">
+      <c r="A324" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B324">
@@ -4135,7 +4143,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="6" t="s">
+      <c r="A325" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B325">
@@ -4143,7 +4151,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="6" t="s">
+      <c r="A326" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B326">
@@ -4151,7 +4159,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" s="6" t="s">
+      <c r="A327" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B327">
@@ -4159,7 +4167,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="6" t="s">
+      <c r="A328" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B328">
@@ -4167,7 +4175,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="6" t="s">
+      <c r="A329" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B329">
@@ -4175,7 +4183,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" s="6" t="s">
+      <c r="A330" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B330">
@@ -4183,7 +4191,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" s="6" t="s">
+      <c r="A331" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B331">
@@ -4191,7 +4199,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="6" t="s">
+      <c r="A332" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B332">
@@ -4199,7 +4207,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="6" t="s">
+      <c r="A333" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B333">
@@ -4207,7 +4215,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="6" t="s">
+      <c r="A334" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B334">
@@ -4215,7 +4223,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" s="6" t="s">
+      <c r="A335" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B335">
@@ -4223,7 +4231,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="6" t="s">
+      <c r="A336" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B336">
@@ -4231,7 +4239,7 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" s="6" t="s">
+      <c r="A337" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B337">
@@ -4326,7 +4334,7 @@
         <v>15</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -4337,7 +4345,7 @@
         <v>16</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -4420,7 +4428,7 @@
         <v>30</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -4431,7 +4439,7 @@
         <v>31</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
@@ -4442,7 +4450,7 @@
         <v>32</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -4478,7 +4486,7 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" s="6" t="s">
+      <c r="A366" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B366">
@@ -4486,7 +4494,7 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" s="6" t="s">
+      <c r="A367" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B367">
@@ -4494,7 +4502,7 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="6" t="s">
+      <c r="A368" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B368">
@@ -4502,7 +4510,7 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="6" t="s">
+      <c r="A369" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B369">
@@ -4510,7 +4518,7 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" s="6" t="s">
+      <c r="A370" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B370">
@@ -4518,7 +4526,7 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="6" t="s">
+      <c r="A371" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B371">
@@ -4526,7 +4534,7 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="6" t="s">
+      <c r="A372" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B372">
@@ -4534,7 +4542,7 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="6" t="s">
+      <c r="A373" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B373">
@@ -4542,7 +4550,7 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="6" t="s">
+      <c r="A374" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B374">
@@ -4550,7 +4558,7 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="6" t="s">
+      <c r="A375" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B375">
@@ -4558,7 +4566,7 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="6" t="s">
+      <c r="A376" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B376">
@@ -4566,7 +4574,7 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" s="6" t="s">
+      <c r="A377" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B377">
@@ -4574,18 +4582,18 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="6" t="s">
+      <c r="A378" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B378">
         <v>17</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="6" t="s">
+      <c r="A379" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B379">
@@ -4593,7 +4601,7 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="6" t="s">
+      <c r="A380" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B380">
@@ -4601,7 +4609,7 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="6" t="s">
+      <c r="A381" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B381">
@@ -4609,7 +4617,7 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="6" t="s">
+      <c r="A382" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B382">
@@ -4617,7 +4625,7 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="6" t="s">
+      <c r="A383" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B383">
@@ -4625,7 +4633,7 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="6" t="s">
+      <c r="A384" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B384">
@@ -4633,7 +4641,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385" s="6" t="s">
+      <c r="A385" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B385">
@@ -4641,7 +4649,7 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386" s="6" t="s">
+      <c r="A386" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B386">
@@ -4649,7 +4657,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387" s="6" t="s">
+      <c r="A387" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B387">
@@ -4657,7 +4665,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" s="6" t="s">
+      <c r="A388" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B388">
@@ -4665,7 +4673,7 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" s="6" t="s">
+      <c r="A389" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B389">
@@ -4673,7 +4681,7 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" s="6" t="s">
+      <c r="A390" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B390">
@@ -4681,7 +4689,7 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" s="6" t="s">
+      <c r="A391" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B391">
@@ -4689,7 +4697,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" s="6" t="s">
+      <c r="A392" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B392">
@@ -4697,7 +4705,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393" s="6" t="s">
+      <c r="A393" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B393">

--- a/Notes on Lines.xlsx
+++ b/Notes on Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/earthnote/Desktop/Bransfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FE4260-2AB4-4241-9A5E-6EB6917FFA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7178C82-D7F5-2645-A57C-0A89D81B56A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" xr2:uid="{D5707BB0-5C9E-FE4E-9C28-50696503ED56}"/>
   </bookViews>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1730744-8F8C-824E-BEC0-BFAF75AF7A04}">
   <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
